--- a/Fleet PMS.xlsx
+++ b/Fleet PMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedShakeel\Documents\Shak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8189BA50-5EF2-4EA8-96B8-1156EACF90D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCB8BC-872E-40D0-95FC-BC9945516B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7485" yWindow="810" windowWidth="21135" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fleet PMS" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="38">
   <si>
     <t>Service Type</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>SUBARU SUV</t>
+  </si>
+  <si>
+    <t>XV_714582</t>
+  </si>
+  <si>
+    <t>FFF</t>
   </si>
 </sst>
 </file>
@@ -172,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,11 +204,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -217,6 +237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BD519E-098F-474B-90A0-C52C64073998}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A46:H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1738,6 +1759,32 @@
         <v>16</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H46" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H46">
@@ -1751,15 +1798,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CD0C5713D8B49840BA44FC47BC25FC9F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6c26ebffaa8bbd830e647f783d3198d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf10023c-c1e1-4ca5-baf6-bad6626b84e9" xmlns:ns3="40b16217-7e26-4dce-af97-68eaad0f1932" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f461dd4a85cef57f3309d1104a6214f5" ns2:_="" ns3:_="">
     <xsd:import namespace="cf10023c-c1e1-4ca5-baf6-bad6626b84e9"/>
@@ -1994,6 +2032,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2007,14 +2054,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621E8973-2387-4409-A9F4-B76514B86CDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66FFF202-47B1-47FA-B664-A38FB0A21DDE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2033,6 +2072,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{621E8973-2387-4409-A9F4-B76514B86CDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A15E6B8-157D-4A1E-9DB6-320E061B5168}">
   <ds:schemaRefs>

--- a/Fleet PMS.xlsx
+++ b/Fleet PMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MohamedShakeel\Documents\Shak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DCB8BC-872E-40D0-95FC-BC9945516B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5043D9EA-FB99-412F-B01F-16525F7308A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="44">
   <si>
     <t>Service Type</t>
   </si>
   <si>
-    <t>Filter Name</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
@@ -53,33 +50,9 @@
     <t>C</t>
   </si>
   <si>
-    <t>OIL FILTER</t>
-  </si>
-  <si>
-    <t>FUEL FILTER</t>
-  </si>
-  <si>
     <t>AIR FILTER</t>
   </si>
   <si>
-    <t>AC FILTER</t>
-  </si>
-  <si>
-    <t>FUEL WATER SEP</t>
-  </si>
-  <si>
-    <t>AIR FILTER (OUTER)</t>
-  </si>
-  <si>
-    <t>FUEL WAT SEPARATOR</t>
-  </si>
-  <si>
-    <t>AIR FILTER (INNER )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIR FILTER </t>
-  </si>
-  <si>
     <t>Pcs</t>
   </si>
   <si>
@@ -150,6 +123,51 @@
   </si>
   <si>
     <t>FFF</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>OIL FILTER / 10075229</t>
+  </si>
+  <si>
+    <t>FUEL FILTER / 10075226</t>
+  </si>
+  <si>
+    <t>FUEL WATER SEP / 10075228</t>
+  </si>
+  <si>
+    <t>AIR FILTER  / 10023314</t>
+  </si>
+  <si>
+    <t>AC FILTER / 10075227</t>
+  </si>
+  <si>
+    <t>OIL FILTER / 10022738</t>
+  </si>
+  <si>
+    <t>OIL FILTER / 10022739</t>
+  </si>
+  <si>
+    <t>FUEL WAT SEPARATOR / 10022981</t>
+  </si>
+  <si>
+    <t>FUEL FILTER / 10023958</t>
+  </si>
+  <si>
+    <t>AIR FILTER / 10020226</t>
+  </si>
+  <si>
+    <t>AIR FILTER / 10022599</t>
+  </si>
+  <si>
+    <t>FUEL WATER SEP / 10022981</t>
+  </si>
+  <si>
+    <t>AIR FILTER (INNER ) / 10020226</t>
+  </si>
+  <si>
+    <t>AIR FILTER (OUTER) / 10022599</t>
   </si>
 </sst>
 </file>
@@ -237,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +563,8 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A46:H47"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,42 +583,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E2" s="4">
         <v>10075229</v>
@@ -609,24 +627,24 @@
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="4">
         <v>10075226</v>
@@ -635,24 +653,24 @@
         <v>1</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4">
         <v>10075228</v>
@@ -661,24 +679,24 @@
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>10075229</v>
@@ -687,24 +705,24 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4">
         <v>10023314</v>
@@ -713,24 +731,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="E7" s="4">
         <v>10075226</v>
@@ -739,24 +757,24 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4">
         <v>10075227</v>
@@ -765,24 +783,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4">
         <v>10075228</v>
@@ -791,24 +809,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4">
         <v>10075229</v>
@@ -817,24 +835,24 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E11" s="4">
         <v>10022738</v>
@@ -843,24 +861,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E12" s="4">
         <v>10022739</v>
@@ -869,24 +887,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
         <v>10022738</v>
@@ -895,24 +913,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E14" s="4">
         <v>10022739</v>
@@ -921,24 +939,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E15" s="4">
         <v>10022981</v>
@@ -947,24 +965,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4">
         <v>10023958</v>
@@ -973,24 +991,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E17" s="4">
         <v>10020226</v>
@@ -999,24 +1017,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E18" s="4">
         <v>10022599</v>
@@ -1025,24 +1043,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E19" s="4">
         <v>10022738</v>
@@ -1051,24 +1069,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4">
         <v>10022739</v>
@@ -1077,24 +1095,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4">
         <v>10022981</v>
@@ -1103,24 +1121,24 @@
         <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4">
         <v>10023958</v>
@@ -1129,24 +1147,24 @@
         <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E23" s="4">
         <v>10022738</v>
@@ -1155,24 +1173,24 @@
         <v>1</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4">
         <v>10022739</v>
@@ -1181,24 +1199,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E25" s="4">
         <v>10022738</v>
@@ -1207,24 +1225,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4">
         <v>10022739</v>
@@ -1233,24 +1251,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4">
         <v>10022981</v>
@@ -1259,24 +1277,24 @@
         <v>1</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E28" s="4">
         <v>10023958</v>
@@ -1285,24 +1303,24 @@
         <v>1</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E29" s="4">
         <v>10020226</v>
@@ -1311,24 +1329,24 @@
         <v>1</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E30" s="4">
         <v>10022599</v>
@@ -1337,24 +1355,24 @@
         <v>1</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E31" s="4">
         <v>10022738</v>
@@ -1363,24 +1381,24 @@
         <v>1</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E32" s="4">
         <v>10022739</v>
@@ -1389,24 +1407,24 @@
         <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E33" s="4">
         <v>10022981</v>
@@ -1415,24 +1433,24 @@
         <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E34" s="4">
         <v>10023958</v>
@@ -1441,24 +1459,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E35" s="4">
         <v>10022738</v>
@@ -1467,24 +1485,24 @@
         <v>1</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E36" s="4">
         <v>10022739</v>
@@ -1493,24 +1511,24 @@
         <v>1</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D37" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E37" s="4">
         <v>10022738</v>
@@ -1519,24 +1537,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E38" s="4">
         <v>10022739</v>
@@ -1545,24 +1563,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E39" s="4">
         <v>10022981</v>
@@ -1571,24 +1589,24 @@
         <v>1</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E40" s="4">
         <v>10023958</v>
@@ -1597,24 +1615,24 @@
         <v>1</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="E41" s="4">
         <v>10020226</v>
@@ -1623,24 +1641,24 @@
         <v>1</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4">
         <v>10022599</v>
@@ -1649,24 +1667,24 @@
         <v>1</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E43" s="4">
         <v>10022738</v>
@@ -1675,24 +1693,24 @@
         <v>1</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4">
         <v>10022739</v>
@@ -1701,24 +1719,24 @@
         <v>1</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E45" s="4">
         <v>10022981</v>
@@ -1727,24 +1745,24 @@
         <v>1</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E46" s="4">
         <v>10023958</v>
@@ -1753,24 +1771,24 @@
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E47" s="2">
         <v>1000000</v>
@@ -1779,10 +1797,10 @@
         <v>2</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
